--- a/data_correction/DataCorrigée.xlsx
+++ b/data_correction/DataCorrigée.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laudine\Dropbox (Ancien)\Mon PC (LAPTOP-LJLKPI7G)\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eye-tracking\Simulateddata\data_correction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDBD643-FE73-43AE-9A49-F1254E942E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1593B34-EF6C-441E-950F-960F1ED265AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B1FCA952-E8D3-4689-8AF6-C925CC51F46F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B1FCA952-E8D3-4689-8AF6-C925CC51F46F}"/>
   </bookViews>
   <sheets>
     <sheet name="Coord" sheetId="5" r:id="rId1"/>
@@ -501,8 +501,8 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:J433"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2719,158 +2719,166 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+    <row r="101" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
         <v>12</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="5">
         <v>156</v>
       </c>
-      <c r="E101" s="13">
+      <c r="D101" s="6"/>
+      <c r="E101" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H101" s="10">
+      <c r="H101" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+    <row r="102" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
         <v>12</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="5">
         <v>238</v>
       </c>
-      <c r="E102" s="13">
+      <c r="D102" s="6"/>
+      <c r="E102" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H102" s="10">
+      <c r="H102" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+    <row r="103" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
         <v>12</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="5">
         <v>327</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="5">
         <v>28</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" s="6">
         <v>38</v>
       </c>
-      <c r="E103" s="13">
+      <c r="E103" s="12">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="5">
         <v>36</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G103" s="5">
         <v>25</v>
       </c>
-      <c r="H103" s="10">
+      <c r="H103" s="8">
         <f t="shared" si="3"/>
         <v>-11</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
         <v>12</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="5">
         <v>352</v>
       </c>
-      <c r="E104" s="13">
+      <c r="D104" s="6"/>
+      <c r="E104" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H104" s="10">
+      <c r="H104" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+    <row r="105" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
         <v>12</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="5">
         <v>421</v>
       </c>
-      <c r="E105" s="13">
+      <c r="D105" s="6"/>
+      <c r="E105" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H105" s="10">
+      <c r="H105" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+    <row r="106" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
         <v>12</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="5">
         <v>489</v>
       </c>
-      <c r="E106" s="13">
+      <c r="D106" s="6"/>
+      <c r="E106" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H106" s="10">
+      <c r="H106" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+    <row r="107" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
         <v>12</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="5">
         <v>672</v>
       </c>
-      <c r="E107" s="13">
+      <c r="D107" s="6"/>
+      <c r="E107" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H107" s="10">
+      <c r="H107" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+    <row r="108" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="5">
         <v>12</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="5">
         <v>756</v>
       </c>
-      <c r="E108" s="13">
+      <c r="D108" s="6"/>
+      <c r="E108" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H108" s="10">
+      <c r="H108" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+    <row r="109" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
         <v>12</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="5">
         <v>980</v>
       </c>
-      <c r="E109" s="13">
+      <c r="D109" s="6"/>
+      <c r="E109" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H109" s="10">
+      <c r="H109" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -9702,8 +9710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2A9AAC-DE0D-4FB8-9958-7EEFBBB2C4BA}">
   <dimension ref="A1:F433"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11126,129 +11134,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+    <row r="101" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
         <v>12</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="5">
         <v>156</v>
       </c>
-      <c r="C101" s="13">
-        <v>0</v>
-      </c>
-      <c r="D101" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+      <c r="C101" s="12">
+        <v>0</v>
+      </c>
+      <c r="D101" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
         <v>12</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="5">
         <v>238</v>
       </c>
-      <c r="C102" s="13">
-        <v>0</v>
-      </c>
-      <c r="D102" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+      <c r="C102" s="12">
+        <v>0</v>
+      </c>
+      <c r="D102" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
         <v>12</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="5">
         <v>327</v>
       </c>
-      <c r="C103" s="13">
+      <c r="C103" s="12">
         <v>10</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="8">
         <v>-11</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+    <row r="104" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
         <v>12</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="5">
         <v>352</v>
       </c>
-      <c r="C104" s="13">
-        <v>0</v>
-      </c>
-      <c r="D104" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+      <c r="C104" s="12">
+        <v>0</v>
+      </c>
+      <c r="D104" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
         <v>12</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="5">
         <v>421</v>
       </c>
-      <c r="C105" s="13">
-        <v>0</v>
-      </c>
-      <c r="D105" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+      <c r="C105" s="12">
+        <v>0</v>
+      </c>
+      <c r="D105" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
         <v>12</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="5">
         <v>489</v>
       </c>
-      <c r="C106" s="13">
-        <v>0</v>
-      </c>
-      <c r="D106" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+      <c r="C106" s="12">
+        <v>0</v>
+      </c>
+      <c r="D106" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
         <v>12</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="5">
         <v>672</v>
       </c>
-      <c r="C107" s="13">
-        <v>0</v>
-      </c>
-      <c r="D107" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+      <c r="C107" s="12">
+        <v>0</v>
+      </c>
+      <c r="D107" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="5">
         <v>12</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="5">
         <v>756</v>
       </c>
-      <c r="C108" s="13">
-        <v>0</v>
-      </c>
-      <c r="D108" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+      <c r="C108" s="12">
+        <v>0</v>
+      </c>
+      <c r="D108" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
         <v>12</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="5">
         <v>980</v>
       </c>
-      <c r="C109" s="13">
-        <v>0</v>
-      </c>
-      <c r="D109" s="10">
+      <c r="C109" s="12">
+        <v>0</v>
+      </c>
+      <c r="D109" s="8">
         <v>0</v>
       </c>
     </row>
@@ -15795,10 +15803,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CB1D53-6E59-481E-99C7-4CA3A42011D4}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15901,55 +15909,55 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5">
-        <v>238</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>352</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>421</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>24</v>
-      </c>
-      <c r="B15" s="11">
-        <v>980</v>
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B16" s="5">
-        <v>156</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B17" s="5">
-        <v>980</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B18" s="5">
         <v>672</v>
@@ -15957,7 +15965,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B19" s="5">
         <v>756</v>
@@ -15965,7 +15973,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B20" s="5">
         <v>980</v>
@@ -15973,9 +15981,81 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
+        <v>13</v>
+      </c>
+      <c r="B21" s="5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>13</v>
+      </c>
+      <c r="B23" s="5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>24</v>
+      </c>
+      <c r="B24" s="11">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>34</v>
+      </c>
+      <c r="B25" s="5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>36</v>
+      </c>
+      <c r="B26" s="5">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>40</v>
+      </c>
+      <c r="B27" s="5">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>40</v>
+      </c>
+      <c r="B28" s="5">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>40</v>
+      </c>
+      <c r="B29" s="5">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>47</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B30" s="5">
         <v>980</v>
       </c>
     </row>
